--- a/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000549</t>
+          <t>001028</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安大国新经济股票</t>
+          <t>华安物联网主题股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001028</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安物联网主题股票</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>000549</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>华安大国新经济股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.55</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.41</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003495</t>
+          <t>009992</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合A</t>
+          <t>景顺长城量化成长演化混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003496</t>
+          <t>001028</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合C</t>
+          <t>华安物联网主题股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005055</t>
+          <t>003495</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+          <t>鹏华弘尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -734,25 +824,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006532</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.65</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009992</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城量化成长演化混合</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000549</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安大国新经济股票</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006346</t>
+          <t>000549</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信量化优选股票A</t>
+          <t>华安大国新经济股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006347</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信量化优选股票C</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>006346</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>安信量化优选股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>003496</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>鹏华弘尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001028</t>
+          <t>006347</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安物联网主题股票</t>
+          <t>安信量化优选股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -958,26 +1128,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>006532</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1136,7 +1137,6 @@
           <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>91.65</t>
@@ -1152,6 +1152,138 @@
       </c>
       <c r="H13" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1289,4 +1290,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
@@ -1314,12 +1314,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1298,7 +1299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,17 +1310,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1329,14 +1350,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1345,14 +1388,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.42</v>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1361,13 +1426,401 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,205 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001028</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安物联网主题股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1621</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001907</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0587</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000549</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安大国新经济股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0286</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001908</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+      <c r="D5" t="n">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -662,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -713,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009992</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城量化成长演化混合</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>29.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1483</t>
+          <t>0.2475</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -751,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001028</t>
+          <t>002510</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安物联网主题股票</t>
+          <t>申万菱信中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0976</t>
+          <t>0.0636</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -789,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003495</t>
+          <t>010495</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合A</t>
+          <t>创金合信创新驱动股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0486</t>
+          <t>0.0445</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -827,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005055</t>
+          <t>007794</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+          <t>申万菱信中证500指数优选增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -865,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>007795</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>申万菱信中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0293</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -903,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>010496</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>创金合信创新驱动股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -941,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000549</t>
+          <t>006346</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安大国新经济股票</t>
+          <t>安信量化优选股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0233</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -979,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>006347</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>安信量化优选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1017,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006346</t>
+          <t>009263</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信量化优选股票A</t>
+          <t>华宝红利精选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1055,104 +947,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003496</t>
+          <t>010841</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合C</t>
+          <t>华宝红利精选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006532</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1299,7 +1122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1320,7 +1143,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1350,36 +1173,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003986</t>
+          <t>009992</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强A</t>
+          <t>景顺长城量化成长演化混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.46</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.88</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2475</t>
+          <t>0.1483</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1388,36 +1211,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002510</t>
+          <t>001028</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强A</t>
+          <t>华安物联网主题股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0636</t>
+          <t>0.0976</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1426,36 +1249,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010495</t>
+          <t>003495</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信创新驱动股票A</t>
+          <t>鹏华弘尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>21.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0445</t>
+          <t>0.0486</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1464,36 +1287,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007794</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.88</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0319</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1502,36 +1325,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007795</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强C</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>90.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1540,36 +1363,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010496</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信创新驱动股票C</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1578,36 +1401,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006346</t>
+          <t>000549</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信量化优选股票A</t>
+          <t>华安大国新经济股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0233</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1616,36 +1439,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006347</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信量化优选股票C</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>90.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1654,36 +1477,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009263</t>
+          <t>006346</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝红利精选混合A</t>
+          <t>安信量化优选股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1692,35 +1515,104 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010841</t>
+          <t>003496</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝红利精选混合C</t>
+          <t>鹏华弘尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>21.15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1735,96 +1627,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.42</v>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.26</v>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -549,6 +566,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8416</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014246</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014247</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -984,7 +1855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1116,7 +1987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1621,7 +2492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/601231-环旭电子.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>1.34</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -566,6 +583,1848 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新兴科技100ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014588</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014587</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1419,7 +3278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1855,7 +3714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1987,7 +3846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2492,7 +4351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
